--- a/Comparing power tools charu.xlsx
+++ b/Comparing power tools charu.xlsx
@@ -455,34 +455,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -490,19 +490,20 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6">
         <v>3.3502340602426402E-5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
+        <v>3.3363806169455701E-5</v>
+      </c>
+      <c r="D2" s="10">
         <v>3.3311518645646199E-5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3.3363806169455701E-5</v>
       </c>
       <c r="E2" s="6">
         <v>2.332705E-4</v>
@@ -510,19 +511,20 @@
       <c r="F2" s="10">
         <v>2.332705E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>3.5224125630536702E-5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
+        <v>3.50814975806949E-5</v>
+      </c>
+      <c r="D3" s="9">
         <v>3.5078440295752899E-5</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3.50814975806949E-5</v>
       </c>
       <c r="E3" s="6">
         <v>3.5011089999999998E-4</v>
@@ -530,19 +532,20 @@
       <c r="F3" s="10">
         <v>3.5011089999999998E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>3.8175657285714297E-12</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
+        <v>3.8076114222797901E-12</v>
+      </c>
+      <c r="D4" s="10">
         <v>3.8074451580310896E-12</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3.8076114222797901E-12</v>
       </c>
       <c r="E4" s="6">
         <v>6.5156170000000003E-12</v>
@@ -550,19 +553,20 @@
       <c r="F4" s="10">
         <v>6.5160000000000001E-12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
         <v>6.7776801596464397E-12</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
+        <v>6.7604891216531698E-12</v>
+      </c>
+      <c r="D5" s="10">
         <v>6.7604437508481101E-12</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6.7604891216531698E-12</v>
       </c>
       <c r="E5" s="6">
         <v>1.3032E-11</v>
@@ -570,19 +574,20 @@
       <c r="F5" s="10">
         <v>1.3031239999999999E-11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>1.17141485578772E-4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
+        <v>1.1668502398221199E-4</v>
+      </c>
+      <c r="D6" s="13">
         <v>1.1668486912983099E-4</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1.1668502398221199E-4</v>
       </c>
       <c r="E6" s="6">
         <v>3.2580009999999998E-12</v>
@@ -590,19 +595,20 @@
       <c r="F6" s="10">
         <v>3.2580009999999998E-12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9">
         <v>2.7747787180722801E-6</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
+        <v>2.7426265952380902E-6</v>
+      </c>
+      <c r="D7" s="9">
         <v>1.8643170714285699E-6</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2.7426265952380902E-6</v>
       </c>
       <c r="E7" s="9">
         <v>6.3359999999999996E-10</v>
@@ -610,19 +616,20 @@
       <c r="F7" s="10">
         <v>6.3362710000000002E-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="11">
         <v>1.2831632290544099E-3</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
+        <v>1.2821409000000001E-3</v>
+      </c>
+      <c r="D8" s="12">
         <v>2.33222183422459E-4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1.2821409000000001E-3</v>
       </c>
       <c r="E8" s="6">
         <v>2.97723E-8</v>
@@ -630,19 +637,20 @@
       <c r="F8" s="10">
         <v>2.97723E-8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6">
         <v>3.4601334161517798E-4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="14">
+        <v>3.4570715344335302E-4</v>
+      </c>
+      <c r="D9" s="7">
         <v>4.8731810000000001E-5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>3.4570715344335302E-4</v>
       </c>
       <c r="E9" s="6">
         <v>4.0089999999999997E-9</v>
@@ -650,6 +658,7 @@
       <c r="F9" s="6">
         <v>4.0089999999999997E-9</v>
       </c>
+      <c r="G9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comparing power tools charu.xlsx
+++ b/Comparing power tools charu.xlsx
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,9 +144,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,7 +455,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +580,10 @@
       <c r="B6" s="4">
         <v>1.17141485578772E-4</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>1.1668502398221199E-4</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>1.1668486912983099E-4</v>
       </c>
       <c r="E6" s="6">
@@ -595,7 +592,7 @@
       <c r="F6" s="10">
         <v>3.2580009999999998E-12</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -607,8 +604,8 @@
       <c r="C7" s="7">
         <v>2.7426265952380902E-6</v>
       </c>
-      <c r="D7" s="9">
-        <v>1.8643170714285699E-6</v>
+      <c r="D7" s="7">
+        <v>2.7426265952380902E-6</v>
       </c>
       <c r="E7" s="9">
         <v>6.3359999999999996E-10</v>
@@ -625,11 +622,11 @@
       <c r="B8" s="11">
         <v>1.2831632290544099E-3</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>1.2821409000000001E-3</v>
       </c>
-      <c r="D8" s="12">
-        <v>2.33222183422459E-4</v>
+      <c r="D8" s="13">
+        <v>1.2821409000000001E-3</v>
       </c>
       <c r="E8" s="6">
         <v>2.97723E-8</v>
@@ -637,7 +634,7 @@
       <c r="F8" s="10">
         <v>2.97723E-8</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -646,11 +643,11 @@
       <c r="B9" s="6">
         <v>3.4601334161517798E-4</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>3.4570715344335302E-4</v>
       </c>
-      <c r="D9" s="7">
-        <v>4.8731810000000001E-5</v>
+      <c r="D9" s="13">
+        <v>3.4570715344335302E-4</v>
       </c>
       <c r="E9" s="6">
         <v>4.0089999999999997E-9</v>
@@ -658,7 +655,7 @@
       <c r="F9" s="6">
         <v>4.0089999999999997E-9</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comparing power tools charu.xlsx
+++ b/Comparing power tools charu.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charu\Desktop\low power\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Circuits</t>
   </si>
@@ -36,34 +41,19 @@
     <t>DFF using TG</t>
   </si>
   <si>
-    <t>MUX using PT</t>
-  </si>
-  <si>
-    <t>MUX using TG</t>
-  </si>
-  <si>
     <t>CMOS Inverter (charu)</t>
   </si>
   <si>
     <t xml:space="preserve"> Charu Python  Average Power(W)</t>
   </si>
   <si>
-    <t>Vahini TCL  Average Power(W)</t>
-  </si>
-  <si>
-    <t>1-bit Adder(VDD=3.3V)</t>
-  </si>
-  <si>
     <t>1-bit Adder(VDD=1.8V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Charu Python  Average Power(W) after taking abs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,12 +131,6 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,210 +439,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6">
-        <v>3.3502340602426402E-5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>3.3363806169455701E-5</v>
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.332705E-4</v>
       </c>
       <c r="D2" s="10">
-        <v>3.3311518645646199E-5</v>
-      </c>
-      <c r="E2" s="6">
         <v>2.332705E-4</v>
       </c>
-      <c r="F2" s="10">
-        <v>2.332705E-4</v>
-      </c>
-      <c r="G2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>3.5224125630536702E-5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3.50814975806949E-5</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3.5078440295752899E-5</v>
-      </c>
-      <c r="E3" s="6">
+        <v>1.77E-5</v>
+      </c>
+      <c r="C3" s="6">
         <v>3.5011089999999998E-4</v>
       </c>
-      <c r="F3" s="10">
+      <c r="D3" s="10">
         <v>3.5011089999999998E-4</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>3.8175657285714297E-12</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3.8076114222797901E-12</v>
+      <c r="B4" s="4">
+        <v>1.6699999999999999E-4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.2580009999999998E-12</v>
       </c>
       <c r="D4" s="10">
-        <v>3.8074451580310896E-12</v>
-      </c>
-      <c r="E4" s="6">
-        <v>6.5156170000000003E-12</v>
-      </c>
-      <c r="F4" s="10">
-        <v>6.5160000000000001E-12</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>3.2580009999999998E-12</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6.7776801596464397E-12</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6.7604891216531698E-12</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.5099999999999999E-6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6.3359999999999996E-10</v>
       </c>
       <c r="D5" s="10">
-        <v>6.7604437508481101E-12</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1.3032E-11</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1.3031239999999999E-11</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>6.3362710000000002E-10</v>
+      </c>
+      <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>1.17141485578772E-4</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1.1668502398221199E-4</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1.1668486912983099E-4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3.2580009999999998E-12</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3.2580009999999998E-12</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2.7747787180722801E-6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2.7426265952380902E-6</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2.7426265952380902E-6</v>
-      </c>
-      <c r="E7" s="9">
-        <v>6.3359999999999996E-10</v>
-      </c>
-      <c r="F7" s="10">
-        <v>6.3362710000000002E-10</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1.2831632290544099E-3</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1.2821409000000001E-3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1.2821409000000001E-3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2.97723E-8</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2.97723E-8</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3.4601334161517798E-4</v>
-      </c>
-      <c r="C9" s="13">
-        <v>3.4570715344335302E-4</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3.4570715344335302E-4</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="B6" s="6">
+        <v>1.3651000000000001E-4</v>
+      </c>
+      <c r="C6" s="6">
         <v>4.0089999999999997E-9</v>
       </c>
-      <c r="F9" s="6">
+      <c r="D6" s="6">
         <v>4.0089999999999997E-9</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="E6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
